--- a/Metadata.xlsx
+++ b/Metadata.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tealesbui/Documents/Github/NEU_expertsystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F006CA13-9837-5343-91F6-BF8B9099FB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67DC0D0-F931-C543-B775-3A68D2D8B954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="500" windowWidth="23260" windowHeight="16440" xr2:uid="{92399C2A-B7C7-F94C-928E-BD931A44494C}"/>
+    <workbookView xWindow="11480" yWindow="2900" windowWidth="23260" windowHeight="16440" activeTab="2" xr2:uid="{92399C2A-B7C7-F94C-928E-BD931A44494C}"/>
   </bookViews>
   <sheets>
     <sheet name="Demographic" sheetId="1" r:id="rId1"/>
-    <sheet name="Questionnaires" sheetId="2" r:id="rId2"/>
+    <sheet name="Mapping table" sheetId="4" r:id="rId2"/>
+    <sheet name="Questionnaires" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="183">
   <si>
     <t>Data type</t>
   </si>
@@ -120,9 +121,6 @@
     <t>1: Under 30, 2: 30-34, 3: 35-39, 4: 40-44, 5: 45-49, 6: 50-55, 7: Over 55</t>
   </si>
   <si>
-    <t>Only for students</t>
-  </si>
-  <si>
     <t>Ngạch thầy/cô</t>
   </si>
   <si>
@@ -150,9 +148,6 @@
     <t>1: Freshman, 2: Sophomore, 3: Junior, 4: Senior</t>
   </si>
   <si>
-    <t>1: KV1, 2: KV2, 3: KV2-NT, 4: KV3 (*)</t>
-  </si>
-  <si>
     <t>Starting from 1</t>
   </si>
   <si>
@@ -459,17 +454,147 @@
     <t>Behavioral Intention</t>
   </si>
   <si>
-    <t>Data Type: Int</t>
-  </si>
-  <si>
-    <t>Value range: likert 5</t>
+    <t>Likert 5</t>
+  </si>
+  <si>
+    <t>Applicable for all</t>
+  </si>
+  <si>
+    <t>['Đại học Kinh tế Quốc dân' 'Đại học Thương mại' 'Học viện Ngân hàng'
+ 'Đại học Ngoại thương' 'Học viện Tài chính']</t>
+  </si>
+  <si>
+    <t>Original Name</t>
+  </si>
+  <si>
+    <t>Đại học Kinh tế Quốc dân</t>
+  </si>
+  <si>
+    <t>National Economics University (NEU)</t>
+  </si>
+  <si>
+    <t>Leading university in economics.</t>
+  </si>
+  <si>
+    <t>Đại học Ngoại thương</t>
+  </si>
+  <si>
+    <t>Foreign Trade University (FTU)</t>
+  </si>
+  <si>
+    <t>Top university in trade and finance.</t>
+  </si>
+  <si>
+    <t>Học viện Tài chính</t>
+  </si>
+  <si>
+    <t>Academy of Finance (AOF)</t>
+  </si>
+  <si>
+    <t>Specializes in finance and public sector.</t>
+  </si>
+  <si>
+    <t>Học viện Ngân hàng</t>
+  </si>
+  <si>
+    <t>Banking Academy (BA)</t>
+  </si>
+  <si>
+    <t>Banking and business-focused.</t>
+  </si>
+  <si>
+    <t>Đại học Thương mại</t>
+  </si>
+  <si>
+    <t>University of Commerce (TMU)</t>
+  </si>
+  <si>
+    <t>Business and commerce education.</t>
+  </si>
+  <si>
+    <t>Region Code</t>
+  </si>
+  <si>
+    <t>Region Name</t>
+  </si>
+  <si>
+    <t>Communes in regions I, II, III, and communes with extremely difficult villages in ethnic and mountainous areas, coastal and island areas; Program 135 investment.</t>
+  </si>
+  <si>
+    <t>Eligible for government investment under Program 135.</t>
+  </si>
+  <si>
+    <t>Provincial towns, cities, and suburban districts of centrally governed cities (excluding communes in KV1).</t>
+  </si>
+  <si>
+    <t>Prioritized for urban development.</t>
+  </si>
+  <si>
+    <t>Rural areas not included in KV1, KV2, or KV3.</t>
+  </si>
+  <si>
+    <t>General rural areas with average socio-economic conditions.</t>
+  </si>
+  <si>
+    <t>Central districts of centrally governed cities.</t>
+  </si>
+  <si>
+    <t>High-level urban areas, typically the most developed regions.</t>
+  </si>
+  <si>
+    <t>KV1</t>
+  </si>
+  <si>
+    <t>KV2</t>
+  </si>
+  <si>
+    <t>KV2-NT</t>
+  </si>
+  <si>
+    <t>KV3</t>
+  </si>
+  <si>
+    <t>Remote Areas</t>
+  </si>
+  <si>
+    <t>Urban Suburbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rural Areas</t>
+  </si>
+  <si>
+    <t>Urban Core</t>
+  </si>
+  <si>
+    <t>Only for students. See mapping table (**)</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>https://thuvienphapluat.vn/phap-luat/cach-xac-dinh-khu-vuc-uu-tien-xet-tuyen-dai-hoc-muc-diem-uu-tien-doi-voi-tung-khu-vuc-theo-quy-che--325461-164563.html</t>
+  </si>
+  <si>
+    <t>Encode</t>
+  </si>
+  <si>
+    <t>Value range (Encode: value)</t>
+  </si>
+  <si>
+    <t>Applicable for all. See mapping table (**)</t>
+  </si>
+  <si>
+    <t>['KV3' 'KV2-NT' 'KV2' 'KV1']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only for students. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -485,6 +610,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -494,7 +627,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -721,105 +854,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1132,218 +1355,218 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA086818-61E6-9F45-BFC9-E4ECEEE77BAD}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="F2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="22"/>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
+      <c r="G4" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="E5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="22" t="s">
+      <c r="D10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="89" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="77" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="78" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="70" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="83" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="87" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
@@ -1355,712 +1578,1051 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3A8307-01EB-4545-A95D-E22E33D8F3BE}">
-  <dimension ref="A1:I61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E5889F-4C95-FA47-B173-8540A8C27670}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="13.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="83.33203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="5"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" customWidth="1"/>
+    <col min="8" max="8" width="31.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+    <row r="1" spans="1:10" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="22">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="J3" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="62" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="22">
         <v>3</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+      <c r="F4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="22">
+        <v>4</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="23">
+        <v>5</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="45"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F6:I6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{E72D201B-74A9-704E-AFCF-8364E21664D4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3A8307-01EB-4545-A95D-E22E33D8F3BE}">
+  <dimension ref="A1:I48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="E1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="D2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D9" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="3"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="22" t="s">
+      <c r="E16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="35"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="7" t="s">
+      <c r="E21" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="B23" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="22" t="s">
+      <c r="E23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="22" t="s">
+      <c r="E24" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="E26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="22" t="s">
+      <c r="E27" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="E28" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="E29" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="22" t="s">
+      <c r="E33" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="E36" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+      <c r="C40" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D38" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D40" s="26" t="s">
+      <c r="D41" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="29" t="s">
+      <c r="E41" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="30" t="s">
+      <c r="D42" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8" t="s">
+      <c r="E42" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="35"/>
+      <c r="B43" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="C43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" s="22" t="s">
+      <c r="E43" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="E44" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="37"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D45" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="34" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="E45" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
+      <c r="A48" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
+    <mergeCell ref="A40:A45"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A24:A37"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="A3:A23"/>
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="B29:B33"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="A23:A36"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
